--- a/03_Regresión_Lineal/Regres Lineal.xlsx
+++ b/03_Regresión_Lineal/Regres Lineal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -185,6 +185,51 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -2628,7 +2673,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2732,9 +2777,124 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="https://lh5.googleusercontent.com/ST2nclGY9mNmsi2nY0Rxs-EYnU5ZfT2C888va6870TTMnm3f8caxTFsKlzG3koqLAVbYp2fit9EAppBMimkzYVL92B3h2F1XQBnzHoIRtg9u4q6MIP_mWZLi534oWouzrqfo9R4KZZE"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13325475" y="571500"/>
+          <a:ext cx="2219325" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>231666</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4" descr="https://lh4.googleusercontent.com/a5N0lWzCOpV419fWjI2bOWuEn-huCXJgnst7FuRKYEsVxQF9ruhekOSAIbSeFC8mlN90R1KHg7axaHimVGAI6tOrvPjnZNxMne-n5JXNaR4k74rO-lAGOwfOGQO-9p74drM1RlXWFS4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13077825" y="2289048"/>
+          <a:ext cx="4289316" cy="854202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9317935" cy="6060109"/>
+    <xdr:ext cx="9293311" cy="6041081"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1"/>
@@ -3022,8 +3182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:C55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3774,7 +3934,7 @@
   <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5585,8 +5745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView topLeftCell="B54" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView topLeftCell="G56" workbookViewId="0">
+      <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5663,15 +5823,15 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H34" si="0">+$G$71+$G$70*B3</f>
-        <v>4.3071014889796153E-3</v>
+        <v>8.6476756199906184E-3</v>
       </c>
       <c r="I3" s="3">
         <f>+C3-H3</f>
-        <v>-1.0468828213775039E-2</v>
+        <v>-1.4809402344786043E-2</v>
       </c>
       <c r="J3">
         <f>+I3*I3</f>
-        <v>1.0959636416953227E-4</v>
+        <v>2.1931839780975435E-4</v>
       </c>
       <c r="K3" s="3">
         <f>+(C3-AVERAGE($C$3:$C$51))^2</f>
@@ -5679,11 +5839,11 @@
       </c>
       <c r="L3" s="3">
         <f t="shared" ref="L3:L50" si="1">+H3-AVERAGE($B$3:$B$51)</f>
-        <v>6.6640642954635398E-3</v>
+        <v>1.1004638426474544E-2</v>
       </c>
       <c r="M3" s="3">
         <f>+H3-AVERAGE($C$3:$C$51)</f>
-        <v>5.2474390120569817E-3</v>
+        <v>9.5880131430679857E-3</v>
       </c>
       <c r="N3" s="3">
         <f>+C3-AVERAGE($C$3:$C$51)</f>
@@ -5691,7 +5851,7 @@
       </c>
       <c r="O3">
         <f>+M3*M3</f>
-        <v>2.7535616185257552E-5</v>
+        <v>9.1929996031644431E-5</v>
       </c>
       <c r="P3">
         <f>+N3*N3</f>
@@ -5728,15 +5888,15 @@
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>-7.5589565343672799E-3</v>
+        <v>-1.3033742691464718E-2</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4:I51" si="6">+C4-H4</f>
-        <v>2.9292038110536062E-3</v>
+        <v>8.4039899681510443E-3</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J51" si="7">+I4*I4</f>
-        <v>8.5802349666909701E-6</v>
+        <v>7.0627047384783393E-5</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K51" si="8">+(C4-AVERAGE($C$3:$C$51))^2</f>
@@ -5744,11 +5904,11 @@
       </c>
       <c r="L4" s="3">
         <f t="shared" si="1"/>
-        <v>-5.2019937278833545E-3</v>
+        <v>-1.0676779884980793E-2</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ref="M4:M51" si="9">+H4-AVERAGE($C$3:$C$51)</f>
-        <v>-6.6186190112899126E-3</v>
+        <v>-1.2093405168387351E-2</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" ref="N4:N51" si="10">+C4-AVERAGE($C$3:$C$51)</f>
@@ -5756,7 +5916,7 @@
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O51" si="11">+M4*M4</f>
-        <v>4.380611761660826E-5</v>
+        <v>1.4625044856677788E-4</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P51" si="12">+N4*N4</f>
@@ -5793,15 +5953,15 @@
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>-5.7781902524596069E-3</v>
+        <v>-9.77996299503903E-3</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="6"/>
-        <v>-2.1931244421088585E-3</v>
+        <v>1.8086483004705646E-3</v>
       </c>
       <c r="J5">
         <f t="shared" si="7"/>
-        <v>4.8097948185752918E-6</v>
+        <v>3.2712086747950616E-6</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="8"/>
@@ -5809,11 +5969,11 @@
       </c>
       <c r="L5" s="3">
         <f t="shared" si="1"/>
-        <v>-3.4212274459756819E-3</v>
+        <v>-7.4230001885551046E-3</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="9"/>
-        <v>-4.8378527293822405E-3</v>
+        <v>-8.8396254719616627E-3</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" si="10"/>
@@ -5821,7 +5981,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="11"/>
-        <v>2.3404819031191194E-5</v>
+        <v>7.8138978484553449E-5</v>
       </c>
       <c r="P5">
         <f t="shared" si="12"/>
@@ -5858,15 +6018,15 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>-8.2267084799251076E-3</v>
+        <v>-1.425384537690935E-2</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="6"/>
-        <v>2.5627182375197264E-3</v>
+        <v>8.5898551345039691E-3</v>
       </c>
       <c r="J6">
         <f t="shared" si="7"/>
-        <v>6.5675247649162125E-6</v>
+        <v>7.3785611231764204E-5</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="8"/>
@@ -5874,11 +6034,11 @@
       </c>
       <c r="L6" s="3">
         <f t="shared" si="1"/>
-        <v>-5.8697456734411822E-3</v>
+        <v>-1.1896882570425425E-2</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="9"/>
-        <v>-7.2863709568477403E-3</v>
+        <v>-1.3313507853831983E-2</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="10"/>
@@ -5886,7 +6046,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="11"/>
-        <v>5.3091201720794254E-5</v>
+        <v>1.772494913740459E-4</v>
       </c>
       <c r="P6">
         <f t="shared" si="12"/>
@@ -5923,15 +6083,15 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>-3.6247903186226145E-3</v>
+        <v>-5.8453147179517067E-3</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="6"/>
-        <v>5.4057247526846349E-3</v>
+        <v>7.626249152013727E-3</v>
       </c>
       <c r="J7">
         <f t="shared" si="7"/>
-        <v>2.9221860101787356E-5</v>
+        <v>5.815967612859009E-5</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="8"/>
@@ -5939,11 +6099,11 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="1"/>
-        <v>-1.2678275121386895E-3</v>
+        <v>-3.4883519114677817E-3</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="9"/>
-        <v>-2.6844527955452477E-3</v>
+        <v>-4.9049771948743402E-3</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="10"/>
@@ -5951,7 +6111,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="11"/>
-        <v>7.2062868115106953E-6</v>
+        <v>2.4058801282237351E-5</v>
       </c>
       <c r="P7">
         <f t="shared" si="12"/>
@@ -5988,15 +6148,15 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2.5866676472796803E-3</v>
+        <v>5.5041341232535818E-3</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="6"/>
-        <v>-2.7175843776961108E-3</v>
+        <v>-5.6350508536700122E-3</v>
       </c>
       <c r="J8">
         <f t="shared" si="7"/>
-        <v>7.3852648498979575E-6</v>
+        <v>3.1753798123447133E-5</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="8"/>
@@ -6004,11 +6164,11 @@
       </c>
       <c r="L8" s="3">
         <f t="shared" si="1"/>
-        <v>4.9436304537636058E-3</v>
+        <v>7.8610969297375072E-3</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="9"/>
-        <v>3.5270051703570472E-3</v>
+        <v>6.4444716463309491E-3</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="10"/>
@@ -6016,7 +6176,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="11"/>
-        <v>1.2439765471725344E-5</v>
+        <v>4.153121480036353E-5</v>
       </c>
       <c r="P8">
         <f t="shared" si="12"/>
@@ -6053,15 +6213,15 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>-1.1217758979441762E-3</v>
+        <v>-1.2718580074284433E-3</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="6"/>
-        <v>7.8595985402750909E-3</v>
+        <v>8.0096806497593591E-3</v>
       </c>
       <c r="J9">
         <f t="shared" si="7"/>
-        <v>6.1773289214294338E-5</v>
+        <v>6.4154984111129511E-5</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="8"/>
@@ -6069,11 +6229,11 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="1"/>
-        <v>1.2351869085397487E-3</v>
+        <v>1.0851047990554817E-3</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="9"/>
-        <v>-1.8143837486680938E-4</v>
+        <v>-3.3152048435107647E-4</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="10"/>
@@ -6081,7 +6241,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="11"/>
-        <v>3.2919883874308843E-8</v>
+        <v>1.0990583154437234E-7</v>
       </c>
       <c r="P9">
         <f t="shared" si="12"/>
@@ -6118,15 +6278,15 @@
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>7.3828164744575934E-3</v>
+        <v>1.4267559078823617E-2</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="6"/>
-        <v>-8.6684203743554403E-3</v>
+        <v>-1.5553162978721464E-2</v>
       </c>
       <c r="J10">
         <f t="shared" si="7"/>
-        <v>7.5141511786540506E-5</v>
+        <v>2.4190087864267191E-4</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="8"/>
@@ -6134,11 +6294,11 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="1"/>
-        <v>9.7397792809415188E-3</v>
+        <v>1.6624521885307542E-2</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="9"/>
-        <v>8.3231539975349607E-3</v>
+        <v>1.5207896601900984E-2</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="10"/>
@@ -6146,7 +6306,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="11"/>
-        <v>6.9274892466682195E-5</v>
+        <v>2.3128011905411151E-4</v>
       </c>
       <c r="P10">
         <f t="shared" si="12"/>
@@ -6183,15 +6343,15 @@
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>-9.2731778494571683E-3</v>
+        <v>-1.6165932786755842E-2</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="6"/>
-        <v>7.0810593373973642E-3</v>
+        <v>1.3973814274696038E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="7"/>
-        <v>5.0141401339742398E-5</v>
+        <v>1.9526748538369876E-4</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="8"/>
@@ -6199,11 +6359,11 @@
       </c>
       <c r="L11" s="3">
         <f t="shared" si="1"/>
-        <v>-6.9162150429732429E-3</v>
+        <v>-1.3808969980271917E-2</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="9"/>
-        <v>-8.332840326379801E-3</v>
+        <v>-1.5225595263678475E-2</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="10"/>
@@ -6211,7 +6371,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="11"/>
-        <v>6.9436227904941424E-5</v>
+        <v>2.318187511333484E-4</v>
       </c>
       <c r="P11">
         <f t="shared" si="12"/>
@@ -6248,15 +6408,15 @@
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>7.6803472253177208E-3</v>
+        <v>1.4811201176075076E-2</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="6"/>
-        <v>-1.0147052680144842E-3</v>
+        <v>-8.1455592187718393E-3</v>
       </c>
       <c r="J12">
         <f t="shared" si="7"/>
-        <v>1.0296267809363462E-6</v>
+        <v>6.6350134986518897E-5</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="8"/>
@@ -6264,11 +6424,11 @@
       </c>
       <c r="L12" s="3">
         <f t="shared" si="1"/>
-        <v>1.0037310031801645E-2</v>
+        <v>1.7168163982559E-2</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="9"/>
-        <v>8.6206847483950872E-3</v>
+        <v>1.5751538699152443E-2</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="10"/>
@@ -6276,7 +6436,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="11"/>
-        <v>7.4316205531211663E-5</v>
+        <v>2.4811097139089704E-4</v>
       </c>
       <c r="P12">
         <f t="shared" si="12"/>
@@ -6313,15 +6473,15 @@
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>-2.073399920621259E-3</v>
+        <v>-3.0106459410704656E-3</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="6"/>
-        <v>8.3000253361078351E-3</v>
+        <v>9.2372713565570409E-3</v>
       </c>
       <c r="J13">
         <f t="shared" si="7"/>
-        <v>6.8890420580031982E-5</v>
+        <v>8.5327182114669148E-5</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="8"/>
@@ -6329,11 +6489,11 @@
       </c>
       <c r="L13" s="3">
         <f t="shared" si="1"/>
-        <v>2.83562885862666E-4</v>
+        <v>-6.5368313458654065E-4</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="9"/>
-        <v>-1.1330623975438921E-3</v>
+        <v>-2.0703084179930988E-3</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="10"/>
@@ -6341,7 +6501,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="11"/>
-        <v>1.283830396727913E-6</v>
+        <v>4.2861769456130878E-6</v>
       </c>
       <c r="P13">
         <f t="shared" si="12"/>
@@ -6378,15 +6538,15 @@
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1.4858226443933134E-3</v>
+        <v>3.492692669259874E-3</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="6"/>
-        <v>2.7369070323776399E-3</v>
+        <v>7.3003700751107922E-4</v>
       </c>
       <c r="J14">
         <f t="shared" si="7"/>
-        <v>7.4906601038781791E-6</v>
+        <v>5.3295403233573149E-7</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="8"/>
@@ -6394,11 +6554,11 @@
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
-        <v>3.8427854508772384E-3</v>
+        <v>5.849655475743799E-3</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="9"/>
-        <v>2.4261601674706802E-3</v>
+        <v>4.4330301923372409E-3</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="10"/>
@@ -6406,7 +6566,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="11"/>
-        <v>5.8862531582213589E-6</v>
+        <v>1.9651756686173554E-5</v>
       </c>
       <c r="P14">
         <f t="shared" si="12"/>
@@ -6443,15 +6603,15 @@
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>-9.5086244426514227E-3</v>
+        <v>-1.6596135982038365E-2</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="6"/>
-        <v>4.8922978618039931E-3</v>
+        <v>1.1979809401190936E-2</v>
       </c>
       <c r="J15">
         <f t="shared" si="7"/>
-        <v>2.3934578368611923E-5</v>
+        <v>1.4351583328886273E-4</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="8"/>
@@ -6459,11 +6619,11 @@
       </c>
       <c r="L15" s="3">
         <f t="shared" si="1"/>
-        <v>-7.1516616361674973E-3</v>
+        <v>-1.423917317555444E-2</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="9"/>
-        <v>-8.5682869195740554E-3</v>
+        <v>-1.5655798458961E-2</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="10"/>
@@ -6471,7 +6631,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="11"/>
-        <v>7.3415540736143851E-5</v>
+        <v>2.451040253876056E-4</v>
       </c>
       <c r="P15">
         <f t="shared" si="12"/>
@@ -6508,15 +6668,15 @@
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>9.2749774602470993E-3</v>
+        <v>1.7724876897833128E-2</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="6"/>
-        <v>-2.7580109743260625E-5</v>
+        <v>-8.4774795473292891E-3</v>
       </c>
       <c r="J16">
         <f t="shared" si="7"/>
-        <v>7.6066245345029968E-10</v>
+        <v>7.1867659475386404E-5</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="8"/>
@@ -6524,11 +6684,11 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" si="1"/>
-        <v>1.1631940266731025E-2</v>
+        <v>2.0081839704317053E-2</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="9"/>
-        <v>1.0215314983324467E-2</v>
+        <v>1.8665214420910493E-2</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="10"/>
@@ -6536,7 +6696,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="11"/>
-        <v>1.0435266020853334E-4</v>
+        <v>3.4839022937856504E-4</v>
       </c>
       <c r="P16">
         <f t="shared" si="12"/>
@@ -6573,15 +6733,15 @@
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>8.7232097021833481E-4</v>
+        <v>2.3717149691344802E-3</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="6"/>
-        <v>-3.9096009773322308E-3</v>
+        <v>-5.4089949762483758E-3</v>
       </c>
       <c r="J17">
         <f t="shared" si="7"/>
-        <v>1.5284979801957133E-5</v>
+        <v>2.9257226653080169E-5</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="8"/>
@@ -6589,11 +6749,11 @@
       </c>
       <c r="L17" s="3">
         <f t="shared" si="1"/>
-        <v>3.2292837767022597E-3</v>
+        <v>4.7286777756184051E-3</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="9"/>
-        <v>1.8126584932957016E-3</v>
+        <v>3.312052492211847E-3</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="10"/>
@@ -6601,7 +6761,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="11"/>
-        <v>3.2857308133170432E-6</v>
+        <v>1.0969691711166707E-5</v>
       </c>
       <c r="P17">
         <f t="shared" si="12"/>
@@ -6638,15 +6798,15 @@
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>3.9091332101313702E-3</v>
+        <v>7.9205161276451573E-3</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="6"/>
-        <v>5.644686642406983E-4</v>
+        <v>-3.4469142532730888E-3</v>
       </c>
       <c r="J18">
         <f t="shared" si="7"/>
-        <v>3.186248729096782E-7</v>
+        <v>1.1881217869417176E-5</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="8"/>
@@ -6654,11 +6814,11 @@
       </c>
       <c r="L18" s="3">
         <f t="shared" si="1"/>
-        <v>6.2660960166152947E-3</v>
+        <v>1.0277478934129083E-2</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="9"/>
-        <v>4.8494707332087366E-3</v>
+        <v>8.8608536507225246E-3</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" si="10"/>
@@ -6666,7 +6826,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="11"/>
-        <v>2.3517366392248083E-5</v>
+        <v>7.8514727419522689E-5</v>
       </c>
       <c r="P18">
         <f t="shared" si="12"/>
@@ -6703,15 +6863,15 @@
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>6.1309887573385213E-3</v>
+        <v>1.1980245100134899E-2</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="6"/>
-        <v>7.1138329711976167E-3</v>
+        <v>1.2645766284012389E-3</v>
       </c>
       <c r="J19">
         <f t="shared" si="7"/>
-        <v>5.0606619542098311E-5</v>
+        <v>1.5991540490986452E-6</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="8"/>
@@ -6719,11 +6879,11 @@
       </c>
       <c r="L19" s="3">
         <f t="shared" si="1"/>
-        <v>8.4879515638224459E-3</v>
+        <v>1.4337207906618825E-2</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="9"/>
-        <v>7.0713262804158877E-3</v>
+        <v>1.2920582623212266E-2</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="10"/>
@@ -6731,7 +6891,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="11"/>
-        <v>5.0003655364100393E-5</v>
+        <v>1.6694145532325478E-4</v>
       </c>
       <c r="P19">
         <f t="shared" si="12"/>
@@ -6768,15 +6928,15 @@
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>-2.6357180906647457E-3</v>
+        <v>-4.0381021902188346E-3</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="6"/>
-        <v>1.8121173246450181E-3</v>
+        <v>3.2145014241991071E-3</v>
       </c>
       <c r="J20">
         <f t="shared" si="7"/>
-        <v>3.283769198278618E-6</v>
+        <v>1.0333019406178088E-5</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="8"/>
@@ -6784,11 +6944,11 @@
       </c>
       <c r="L20" s="3">
         <f t="shared" si="1"/>
-        <v>-2.7875528418082069E-4</v>
+        <v>-1.6811393837349096E-3</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="9"/>
-        <v>-1.6953805675873788E-3</v>
+        <v>-3.0977646671414678E-3</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" si="10"/>
@@ -6796,7 +6956,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="11"/>
-        <v>2.8743152689529028E-6</v>
+        <v>9.5961459329900888E-6</v>
       </c>
       <c r="P20">
         <f t="shared" si="12"/>
@@ -6833,15 +6993,15 @@
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>3.6247524406116532E-3</v>
+        <v>7.4009014071070352E-3</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="6"/>
-        <v>-3.2688838050549535E-3</v>
+        <v>-7.0450327715503355E-3</v>
       </c>
       <c r="J21">
         <f t="shared" si="7"/>
-        <v>1.0685601330950551E-5</v>
+        <v>4.9632486752218198E-5</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="8"/>
@@ -6849,11 +7009,11 @@
       </c>
       <c r="L21" s="3">
         <f t="shared" si="1"/>
-        <v>5.9817152470955787E-3</v>
+        <v>9.7578642135909607E-3</v>
       </c>
       <c r="M21" s="3">
         <f t="shared" si="9"/>
-        <v>4.5650899636890205E-3</v>
+        <v>8.3412389301844025E-3</v>
       </c>
       <c r="N21" s="3">
         <f t="shared" si="10"/>
@@ -6861,7 +7021,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="11"/>
-        <v>2.0840046376574222E-5</v>
+        <v>6.9576266890423837E-5</v>
       </c>
       <c r="P21">
         <f t="shared" si="12"/>
@@ -6898,15 +7058,15 @@
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>6.6296783050874249E-4</v>
+        <v>1.9891891979028349E-3</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="6"/>
-        <v>7.8005750044356954E-3</v>
+        <v>6.4743536370416022E-3</v>
       </c>
       <c r="J22">
         <f t="shared" si="7"/>
-        <v>6.0848970399826952E-5</v>
+        <v>4.1917255017473825E-5</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="8"/>
@@ -6914,11 +7074,11 @@
       </c>
       <c r="L22" s="3">
         <f t="shared" si="1"/>
-        <v>3.0199306369926675E-3</v>
+        <v>4.3461520043867599E-3</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="9"/>
-        <v>1.6033053535861094E-3</v>
+        <v>2.9295267209802018E-3</v>
       </c>
       <c r="N22" s="3">
         <f t="shared" si="10"/>
@@ -6926,7 +7086,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="11"/>
-        <v>2.5705880568378794E-6</v>
+        <v>8.5821268089370135E-6</v>
       </c>
       <c r="P22">
         <f t="shared" si="12"/>
@@ -6963,15 +7123,15 @@
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>-4.4513430355627879E-3</v>
+        <v>-7.3555749220725651E-3</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="6"/>
-        <v>3.0919919997979993E-3</v>
+        <v>5.9962238863077765E-3</v>
       </c>
       <c r="J23">
         <f t="shared" si="7"/>
-        <v>9.5604145268148308E-6</v>
+        <v>3.5954700894727932E-5</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="8"/>
@@ -6979,11 +7139,11 @@
       </c>
       <c r="L23" s="3">
         <f t="shared" si="1"/>
-        <v>-2.0943802290788629E-3</v>
+        <v>-4.9986121155886406E-3</v>
       </c>
       <c r="M23" s="3">
         <f t="shared" si="9"/>
-        <v>-3.5110055124854211E-3</v>
+        <v>-6.4152373989951987E-3</v>
       </c>
       <c r="N23" s="3">
         <f t="shared" si="10"/>
@@ -6991,7 +7151,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="11"/>
-        <v>1.2327159708703015E-5</v>
+        <v>4.1155270885466681E-5</v>
       </c>
       <c r="P23">
         <f t="shared" si="12"/>
@@ -7028,15 +7188,15 @@
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>6.2712083491606781E-3</v>
+        <v>1.2236451467892083E-2</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="6"/>
-        <v>3.601405845449929E-3</v>
+        <v>-2.3638372732814762E-3</v>
       </c>
       <c r="J24">
         <f t="shared" si="7"/>
-        <v>1.2970124063640918E-5</v>
+        <v>5.5877266545548043E-6</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="8"/>
@@ -7044,11 +7204,11 @@
       </c>
       <c r="L24" s="3">
         <f t="shared" si="1"/>
-        <v>8.6281711556446036E-3</v>
+        <v>1.4593414274376009E-2</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="9"/>
-        <v>7.2115458722380454E-3</v>
+        <v>1.3176788990969451E-2</v>
       </c>
       <c r="N24" s="3">
         <f t="shared" si="10"/>
@@ -7056,7 +7216,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="11"/>
-        <v>5.2006393867393591E-5</v>
+        <v>1.7362776811253371E-4</v>
       </c>
       <c r="P24">
         <f t="shared" si="12"/>
@@ -7093,15 +7253,15 @@
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>-5.3118643412150513E-3</v>
+        <v>-8.92790183612081E-3</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="6"/>
-        <v>2.3048844447710005E-3</v>
+        <v>5.9209219396767591E-3</v>
       </c>
       <c r="J25">
         <f t="shared" si="7"/>
-        <v>5.3124923037473237E-6</v>
+        <v>3.5057316615745598E-5</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="8"/>
@@ -7109,11 +7269,11 @@
       </c>
       <c r="L25" s="3">
         <f t="shared" si="1"/>
-        <v>-2.9549015347311264E-3</v>
+        <v>-6.5709390296368846E-3</v>
       </c>
       <c r="M25" s="3">
         <f t="shared" si="9"/>
-        <v>-4.3715268181376849E-3</v>
+        <v>-7.9875643130434427E-3</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="10"/>
@@ -7121,7 +7281,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="11"/>
-        <v>1.9110246721696992E-5</v>
+        <v>6.3801183655005166E-5</v>
       </c>
       <c r="P25">
         <f t="shared" si="12"/>
@@ -7158,15 +7318,15 @@
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>-3.7692017001908062E-3</v>
+        <v>-6.1091802381231667E-3</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="6"/>
-        <v>1.5266454531116646E-3</v>
+        <v>3.8666239910440251E-3</v>
       </c>
       <c r="J26">
         <f t="shared" si="7"/>
-        <v>2.3306463395065196E-6</v>
+        <v>1.4950781088117224E-5</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="8"/>
@@ -7174,11 +7334,11 @@
       </c>
       <c r="L26" s="3">
         <f t="shared" si="1"/>
-        <v>-1.4122388937068812E-3</v>
+        <v>-3.7522174316392417E-3</v>
       </c>
       <c r="M26" s="3">
         <f t="shared" si="9"/>
-        <v>-2.8288641771134393E-3</v>
+        <v>-5.1688427150458002E-3</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="10"/>
@@ -7186,7 +7346,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="11"/>
-        <v>8.0024725325556959E-6</v>
+        <v>2.671693501288204E-5</v>
       </c>
       <c r="P26">
         <f t="shared" si="12"/>
@@ -7223,15 +7383,15 @@
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>-4.6488415824517491E-3</v>
+        <v>-7.7164402239764552E-3</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="6"/>
-        <v>5.7981042452411122E-3</v>
+        <v>8.8657028867658184E-3</v>
       </c>
       <c r="J27">
         <f t="shared" si="7"/>
-        <v>3.3618012838683007E-5</v>
+        <v>7.8600687676407761E-5</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" si="8"/>
@@ -7239,11 +7399,11 @@
       </c>
       <c r="L27" s="3">
         <f t="shared" si="1"/>
-        <v>-2.2918787759678241E-3</v>
+        <v>-5.3594774174925298E-3</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" si="9"/>
-        <v>-3.7085040593743822E-3</v>
+        <v>-6.7761027008990879E-3</v>
       </c>
       <c r="N27" s="3">
         <f t="shared" si="10"/>
@@ -7251,7 +7411,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="11"/>
-        <v>1.3753002358396271E-5</v>
+        <v>4.5915567813131911E-5</v>
       </c>
       <c r="P27">
         <f t="shared" si="12"/>
@@ -7288,15 +7448,15 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>5.7262241156340096E-3</v>
+        <v>1.1240667432706086E-2</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="6"/>
-        <v>-7.2411429989925388E-3</v>
+        <v>-1.2755586316064615E-2</v>
       </c>
       <c r="J28">
         <f t="shared" si="7"/>
-        <v>5.2434151931858661E-5</v>
+        <v>1.6270498226657486E-4</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="8"/>
@@ -7304,11 +7464,11 @@
       </c>
       <c r="L28" s="3">
         <f t="shared" si="1"/>
-        <v>8.083186922117935E-3</v>
+        <v>1.3597630239190011E-2</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" si="9"/>
-        <v>6.6665616387113769E-3</v>
+        <v>1.2181004955783453E-2</v>
       </c>
       <c r="N28" s="3">
         <f t="shared" si="10"/>
@@ -7316,7 +7476,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="11"/>
-        <v>4.4443044082738119E-5</v>
+        <v>1.4837688173282104E-4</v>
       </c>
       <c r="P28">
         <f t="shared" si="12"/>
@@ -7353,15 +7513,15 @@
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>-4.5862823956873619E-3</v>
+        <v>-7.6021333585629836E-3</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="6"/>
-        <v>-2.9789897234614789E-2</v>
+        <v>-2.6774046271739169E-2</v>
       </c>
       <c r="J29">
         <f t="shared" si="7"/>
-        <v>8.8743797724890987E-4</v>
+        <v>7.168495537612301E-4</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="8"/>
@@ -7369,11 +7529,11 @@
       </c>
       <c r="L29" s="3">
         <f t="shared" si="1"/>
-        <v>-2.2293195892034369E-3</v>
+        <v>-5.2451705520790582E-3</v>
       </c>
       <c r="M29" s="3">
         <f t="shared" si="9"/>
-        <v>-3.645944872609995E-3</v>
+        <v>-6.6617958354856163E-3</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" si="10"/>
@@ -7381,7 +7541,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="11"/>
-        <v>1.3292914014111113E-5</v>
+        <v>4.4379523753693502E-5</v>
       </c>
       <c r="P29">
         <f t="shared" si="12"/>
@@ -7418,15 +7578,15 @@
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>-4.1988566555698388E-3</v>
+        <v>-6.8942369771711172E-3</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="6"/>
-        <v>-1.4378279694087791E-2</v>
+        <v>-1.1682899372486514E-2</v>
       </c>
       <c r="J30">
         <f t="shared" si="7"/>
-        <v>2.0673492696141732E-4</v>
+        <v>1.3649013774764577E-4</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="8"/>
@@ -7434,11 +7594,11 @@
       </c>
       <c r="L30" s="3">
         <f t="shared" si="1"/>
-        <v>-1.8418938490859138E-3</v>
+        <v>-4.5372741706871927E-3</v>
       </c>
       <c r="M30" s="3">
         <f t="shared" si="9"/>
-        <v>-3.2585191324924719E-3</v>
+        <v>-5.9538994540937508E-3</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" si="10"/>
@@ -7446,7 +7606,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="11"/>
-        <v>1.0617946936819491E-5</v>
+        <v>3.5448918709457864E-5</v>
       </c>
       <c r="P30">
         <f t="shared" si="12"/>
@@ -7483,15 +7643,15 @@
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>-8.8428922732307919E-3</v>
+        <v>-1.5379723790204998E-2</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="6"/>
-        <v>2.5517151112367815E-3</v>
+        <v>9.0885466282109879E-3</v>
       </c>
       <c r="J31">
         <f t="shared" si="7"/>
-        <v>6.5112500089141397E-6</v>
+        <v>8.2601679813165319E-5</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" si="8"/>
@@ -7499,11 +7659,11 @@
       </c>
       <c r="L31" s="3">
         <f t="shared" si="1"/>
-        <v>-6.4859294667468665E-3</v>
+        <v>-1.3022760983721073E-2</v>
       </c>
       <c r="M31" s="3">
         <f t="shared" si="9"/>
-        <v>-7.9025547501534246E-3</v>
+        <v>-1.4439386267127631E-2</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" si="10"/>
@@ -7511,7 +7671,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="11"/>
-        <v>6.2450371579172461E-5</v>
+        <v>2.0849587577131403E-4</v>
       </c>
       <c r="P31">
         <f t="shared" si="12"/>
@@ -7548,15 +7708,15 @@
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>-5.2317939667652748E-3</v>
+        <v>-8.7815988870382465E-3</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="6"/>
-        <v>8.2686711622822033E-3</v>
+        <v>1.1818476082555176E-2</v>
       </c>
       <c r="J32">
         <f t="shared" si="7"/>
-        <v>6.8370922789957319E-5</v>
+        <v>1.3967637691392873E-4</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="8"/>
@@ -7564,11 +7724,11 @@
       </c>
       <c r="L32" s="3">
         <f t="shared" si="1"/>
-        <v>-2.8748311602813498E-3</v>
+        <v>-6.4246360805543211E-3</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" si="9"/>
-        <v>-4.2914564436879084E-3</v>
+        <v>-7.8412613639608792E-3</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="10"/>
@@ -7576,7 +7736,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="11"/>
-        <v>1.8416598408070469E-5</v>
+        <v>6.1485379777945621E-5</v>
       </c>
       <c r="P32">
         <f t="shared" si="12"/>
@@ -7613,15 +7773,15 @@
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>5.5029787781265757E-3</v>
+        <v>1.0832758122043918E-2</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="6"/>
-        <v>1.6509399473809784E-2</v>
+        <v>1.1179620129892442E-2</v>
       </c>
       <c r="J33">
         <f t="shared" si="7"/>
-        <v>2.7256027098583076E-4</v>
+        <v>1.2498390624869629E-4</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="8"/>
@@ -7629,11 +7789,11 @@
       </c>
       <c r="L33" s="3">
         <f t="shared" si="1"/>
-        <v>7.8599415846105011E-3</v>
+        <v>1.3189720928527843E-2</v>
       </c>
       <c r="M33" s="3">
         <f t="shared" si="9"/>
-        <v>6.443316301203943E-3</v>
+        <v>1.1773095645121285E-2</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" si="10"/>
@@ -7641,7 +7801,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="11"/>
-        <v>4.1516324957360459E-5</v>
+        <v>1.3860578106917378E-4</v>
       </c>
       <c r="P33">
         <f t="shared" si="12"/>
@@ -7678,15 +7838,15 @@
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>-1.081714765114771E-2</v>
+        <v>-1.8987042801964199E-2</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" si="6"/>
-        <v>-1.314595961100574E-2</v>
+        <v>-4.9760644601892501E-3</v>
       </c>
       <c r="J34">
         <f t="shared" si="7"/>
-        <v>1.7281625409419418E-4</v>
+        <v>2.4761217511958534E-5</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="8"/>
@@ -7694,11 +7854,11 @@
       </c>
       <c r="L34" s="3">
         <f t="shared" si="1"/>
-        <v>-8.4601848446637842E-3</v>
+        <v>-1.6630079995480274E-2</v>
       </c>
       <c r="M34" s="3">
         <f t="shared" si="9"/>
-        <v>-9.8768101280703423E-3</v>
+        <v>-1.8046705278886833E-2</v>
       </c>
       <c r="N34" s="3">
         <f t="shared" si="10"/>
@@ -7706,7 +7866,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="11"/>
-        <v>9.755137830595289E-5</v>
+        <v>3.2568357142300191E-4</v>
       </c>
       <c r="P34">
         <f t="shared" si="12"/>
@@ -7743,15 +7903,15 @@
       </c>
       <c r="H35">
         <f t="shared" ref="H35:H51" si="13">+$G$71+$G$70*B35</f>
-        <v>1.9628987282284019E-3</v>
+        <v>4.3643963234698832E-3</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="6"/>
-        <v>2.1299286693973294E-3</v>
+        <v>-2.7156892584415202E-4</v>
       </c>
       <c r="J35">
         <f t="shared" si="7"/>
-        <v>4.5365961367206779E-6</v>
+        <v>7.3749681484146539E-8</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="8"/>
@@ -7759,11 +7919,11 @@
       </c>
       <c r="L35" s="3">
         <f t="shared" si="1"/>
-        <v>4.3198615347123269E-3</v>
+        <v>6.7213591299538078E-3</v>
       </c>
       <c r="M35" s="3">
         <f t="shared" si="9"/>
-        <v>2.9032362513057687E-3</v>
+        <v>5.3047338465472497E-3</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" si="10"/>
@@ -7771,7 +7931,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="11"/>
-        <v>8.4287807308959735E-6</v>
+        <v>2.8140201182703978E-5</v>
       </c>
       <c r="P35">
         <f t="shared" si="12"/>
@@ -7808,15 +7968,15 @@
       </c>
       <c r="H36">
         <f t="shared" si="13"/>
-        <v>-1.0990342689029023E-2</v>
+        <v>-1.9303501229723845E-2</v>
       </c>
       <c r="I36" s="3">
         <f t="shared" si="6"/>
-        <v>-1.3793098843246279E-3</v>
+        <v>6.9338486563701937E-3</v>
       </c>
       <c r="J36">
         <f t="shared" si="7"/>
-        <v>1.9024957569956183E-6</v>
+        <v>4.8078257189446738E-5</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="8"/>
@@ -7824,11 +7984,11 @@
       </c>
       <c r="L36" s="3">
         <f t="shared" si="1"/>
-        <v>-8.6333798825450978E-3</v>
+        <v>-1.6946538423239919E-2</v>
       </c>
       <c r="M36" s="3">
         <f t="shared" si="9"/>
-        <v>-1.0050005165951656E-2</v>
+        <v>-1.8363163706646479E-2</v>
       </c>
       <c r="N36" s="3">
         <f t="shared" si="10"/>
@@ -7836,7 +7996,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="11"/>
-        <v>1.0100260383565497E-4</v>
+        <v>3.3720578131709846E-4</v>
       </c>
       <c r="P36">
         <f t="shared" si="12"/>
@@ -7873,15 +8033,15 @@
       </c>
       <c r="H37">
         <f t="shared" si="13"/>
-        <v>-5.9055264652728709E-3</v>
+        <v>-1.0012629116405439E-2</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="6"/>
-        <v>5.9504660395320883E-3</v>
+        <v>1.0057568690664657E-2</v>
       </c>
       <c r="J37">
         <f t="shared" si="7"/>
-        <v>3.5408046087624694E-5</v>
+        <v>1.0115468796743798E-4</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="8"/>
@@ -7889,11 +8049,11 @@
       </c>
       <c r="L37" s="3">
         <f t="shared" si="1"/>
-        <v>-3.5485636587889459E-3</v>
+        <v>-7.655666309921514E-3</v>
       </c>
       <c r="M37" s="3">
         <f t="shared" si="9"/>
-        <v>-4.9651889421955045E-3</v>
+        <v>-9.0722915933280721E-3</v>
       </c>
       <c r="N37" s="3">
         <f t="shared" si="10"/>
@@ -7901,7 +8061,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="11"/>
-        <v>2.4653101231700512E-5</v>
+        <v>8.2306474754371213E-5</v>
       </c>
       <c r="P37">
         <f t="shared" si="12"/>
@@ -7938,15 +8098,15 @@
       </c>
       <c r="H38">
         <f t="shared" si="13"/>
-        <v>7.4707748416284921E-3</v>
+        <v>1.4428274806731962E-2</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="6"/>
-        <v>6.3468219313779148E-4</v>
+        <v>-6.3228177719656786E-3</v>
       </c>
       <c r="J38">
         <f t="shared" si="7"/>
-        <v>4.0282148628619686E-7</v>
+        <v>3.9978024577485028E-5</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" si="8"/>
@@ -7954,11 +8114,11 @@
       </c>
       <c r="L38" s="3">
         <f t="shared" si="1"/>
-        <v>9.8277376481124175E-3</v>
+        <v>1.6785237613215886E-2</v>
       </c>
       <c r="M38" s="3">
         <f t="shared" si="9"/>
-        <v>8.4111123647058594E-3</v>
+        <v>1.5368612329809329E-2</v>
       </c>
       <c r="N38" s="3">
         <f t="shared" si="10"/>
@@ -7966,7 +8126,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="11"/>
-        <v>7.0746811211707796E-5</v>
+        <v>2.3619424494396735E-4</v>
       </c>
       <c r="P38">
         <f t="shared" si="12"/>
@@ -8003,15 +8163,15 @@
       </c>
       <c r="H39">
         <f t="shared" si="13"/>
-        <v>3.5228377948711229E-3</v>
+        <v>7.2146850526937454E-3</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="6"/>
-        <v>8.510295440235429E-4</v>
+        <v>-2.8408177137990796E-3</v>
       </c>
       <c r="J39">
         <f t="shared" si="7"/>
-        <v>7.242512848009193E-7</v>
+        <v>8.0702452830346287E-6</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" si="8"/>
@@ -8019,11 +8179,11 @@
       </c>
       <c r="L39" s="3">
         <f t="shared" si="1"/>
-        <v>5.8798006013550484E-3</v>
+        <v>9.5716478591776708E-3</v>
       </c>
       <c r="M39" s="3">
         <f t="shared" si="9"/>
-        <v>4.4631753179484902E-3</v>
+        <v>8.1550225757711127E-3</v>
       </c>
       <c r="N39" s="3">
         <f t="shared" si="10"/>
@@ -8031,7 +8191,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="11"/>
-        <v>1.9919933918744606E-5</v>
+        <v>6.650439321133651E-5</v>
       </c>
       <c r="P39">
         <f t="shared" si="12"/>
@@ -8068,15 +8228,15 @@
       </c>
       <c r="H40">
         <f t="shared" si="13"/>
-        <v>-1.1411922507621181E-2</v>
+        <v>-2.0073803244140077E-2</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="6"/>
-        <v>-3.6945114864612126E-4</v>
+        <v>8.2924295878727752E-3</v>
       </c>
       <c r="J40">
         <f t="shared" si="7"/>
-        <v>1.3649415123593838E-7</v>
+        <v>6.8764388469827847E-5</v>
       </c>
       <c r="K40" s="3">
         <f t="shared" si="8"/>
@@ -8084,11 +8244,11 @@
       </c>
       <c r="L40" s="3">
         <f t="shared" si="1"/>
-        <v>-9.0549597011372555E-3</v>
+        <v>-1.7716840437656152E-2</v>
       </c>
       <c r="M40" s="3">
         <f t="shared" si="9"/>
-        <v>-1.0471584984543814E-2</v>
+        <v>-1.9133465721062712E-2</v>
       </c>
       <c r="N40" s="3">
         <f t="shared" si="10"/>
@@ -8096,7 +8256,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="11"/>
-        <v>1.0965409208852346E-4</v>
+        <v>3.6608951049908186E-4</v>
       </c>
       <c r="P40">
         <f t="shared" si="12"/>
@@ -8133,15 +8293,15 @@
       </c>
       <c r="H41">
         <f t="shared" si="13"/>
-        <v>1.2240589086045585E-2</v>
+        <v>2.3143581751773855E-2</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" si="6"/>
-        <v>-1.2942970455721072E-2</v>
+        <v>-2.3845963121449341E-2</v>
       </c>
       <c r="J41">
         <f t="shared" si="7"/>
-        <v>1.6752048421766853E-4</v>
+        <v>5.6862995718952205E-4</v>
       </c>
       <c r="K41" s="3">
         <f t="shared" si="8"/>
@@ -8149,11 +8309,11 @@
       </c>
       <c r="L41" s="3">
         <f t="shared" si="1"/>
-        <v>1.4597551892529511E-2</v>
+        <v>2.550054455825778E-2</v>
       </c>
       <c r="M41" s="3">
         <f t="shared" si="9"/>
-        <v>1.3180926609122953E-2</v>
+        <v>2.408391927485122E-2</v>
       </c>
       <c r="N41" s="3">
         <f t="shared" si="10"/>
@@ -8161,7 +8321,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="11"/>
-        <v>1.7373682627508551E-4</v>
+        <v>5.8003516763755012E-4</v>
       </c>
       <c r="P41">
         <f t="shared" si="12"/>
@@ -8198,15 +8358,15 @@
       </c>
       <c r="H42">
         <f t="shared" si="13"/>
-        <v>-4.2176522789607752E-3</v>
+        <v>-6.9285799554678401E-3</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="6"/>
-        <v>1.1889335247384796E-2</v>
+        <v>1.4600262923891862E-2</v>
       </c>
       <c r="J42">
         <f t="shared" si="7"/>
-        <v>1.4135629262470648E-4</v>
+        <v>2.1316767744677134E-4</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" si="8"/>
@@ -8214,11 +8374,11 @@
       </c>
       <c r="L42" s="3">
         <f t="shared" si="1"/>
-        <v>-1.8606894724768502E-3</v>
+        <v>-4.5716171489839155E-3</v>
       </c>
       <c r="M42" s="3">
         <f t="shared" si="9"/>
-        <v>-3.2773147558834083E-3</v>
+        <v>-5.9882424323904736E-3</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" si="10"/>
@@ -8226,7 +8386,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="11"/>
-        <v>1.0740792009131124E-5</v>
+        <v>3.5859047429081777E-5</v>
       </c>
       <c r="P42">
         <f t="shared" si="12"/>
@@ -8263,15 +8423,15 @@
       </c>
       <c r="H43">
         <f t="shared" si="13"/>
-        <v>3.7477498215544372E-3</v>
+        <v>7.625639703699465E-3</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="6"/>
-        <v>-2.1828626788847685E-3</v>
+        <v>-6.0607525610297964E-3</v>
       </c>
       <c r="J43">
         <f t="shared" si="7"/>
-        <v>4.7648894748679882E-6</v>
+        <v>3.6732721606029237E-5</v>
       </c>
       <c r="K43" s="3">
         <f t="shared" si="8"/>
@@ -8279,11 +8439,11 @@
       </c>
       <c r="L43" s="3">
         <f t="shared" si="1"/>
-        <v>6.1047126280383626E-3</v>
+        <v>9.9826025101833905E-3</v>
       </c>
       <c r="M43" s="3">
         <f t="shared" si="9"/>
-        <v>4.6880873446318045E-3</v>
+        <v>8.5659772267768323E-3</v>
       </c>
       <c r="N43" s="3">
         <f t="shared" si="10"/>
@@ -8291,7 +8451,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="11"/>
-        <v>2.1978162950896885E-5</v>
+        <v>7.3375965849659306E-5</v>
       </c>
       <c r="P43">
         <f t="shared" si="12"/>
@@ -8328,15 +8488,15 @@
       </c>
       <c r="H44">
         <f t="shared" si="13"/>
-        <v>2.1434799516206002E-3</v>
+        <v>4.6943506381932074E-3</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="6"/>
-        <v>1.2895960473700971E-2</v>
+        <v>1.0345089787128364E-2</v>
       </c>
       <c r="J44">
         <f t="shared" si="7"/>
-        <v>1.6630579653925776E-4</v>
+        <v>1.0702088270374758E-4</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="8"/>
@@ -8344,11 +8504,11 @@
       </c>
       <c r="L44" s="3">
         <f t="shared" si="1"/>
-        <v>4.5004427581045257E-3</v>
+        <v>7.0513134446771319E-3</v>
       </c>
       <c r="M44" s="3">
         <f t="shared" si="9"/>
-        <v>3.0838174746979671E-3</v>
+        <v>5.6346881612705738E-3</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" si="10"/>
@@ -8356,7 +8516,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="11"/>
-        <v>9.5099302172525471E-6</v>
+        <v>3.1749710674762762E-5</v>
       </c>
       <c r="P44">
         <f t="shared" si="12"/>
@@ -8393,15 +8553,15 @@
       </c>
       <c r="H45">
         <f t="shared" si="13"/>
-        <v>-5.7359742757744905E-3</v>
+        <v>-9.7028268266387274E-3</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="6"/>
-        <v>3.3081278544561657E-3</v>
+        <v>7.2749804053204026E-3</v>
       </c>
       <c r="J45">
         <f t="shared" si="7"/>
-        <v>1.0943709901428754E-5</v>
+        <v>5.2925339897795808E-5</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" si="8"/>
@@ -8409,11 +8569,11 @@
       </c>
       <c r="L45" s="3">
         <f t="shared" si="1"/>
-        <v>-3.3790114692905655E-3</v>
+        <v>-7.345864020154802E-3</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" si="9"/>
-        <v>-4.7956367526971241E-3</v>
+        <v>-8.7624893035613601E-3</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" si="10"/>
@@ -8421,7 +8581,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="11"/>
-        <v>2.2998131863819416E-5</v>
+        <v>7.6781218795027244E-5</v>
       </c>
       <c r="P45">
         <f t="shared" si="12"/>
@@ -8458,15 +8618,15 @@
       </c>
       <c r="H46">
         <f t="shared" si="13"/>
-        <v>-1.2901031508192209E-2</v>
+        <v>-2.2794672726592448E-2</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="6"/>
-        <v>-1.3209634950518754E-2</v>
+        <v>-3.3159937321185148E-3</v>
       </c>
       <c r="J46">
         <f t="shared" si="7"/>
-        <v>1.7449445552596658E-4</v>
+        <v>1.0995814431449277E-5</v>
       </c>
       <c r="K46" s="3">
         <f t="shared" si="8"/>
@@ -8474,11 +8634,11 @@
       </c>
       <c r="L46" s="3">
         <f t="shared" si="1"/>
-        <v>-1.0544068701708284E-2</v>
+        <v>-2.0437709920108522E-2</v>
       </c>
       <c r="M46" s="3">
         <f t="shared" si="9"/>
-        <v>-1.1960693985114842E-2</v>
+        <v>-2.1854335203515082E-2</v>
       </c>
       <c r="N46" s="3">
         <f t="shared" si="10"/>
@@ -8486,7 +8646,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="11"/>
-        <v>1.4305820060556235E-4</v>
+        <v>4.7761196718759864E-4</v>
       </c>
       <c r="P46">
         <f t="shared" si="12"/>
@@ -8523,15 +8683,15 @@
       </c>
       <c r="H47">
         <f t="shared" si="13"/>
-        <v>1.4763740071619045E-2</v>
+        <v>2.7753831581459838E-2</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" si="6"/>
-        <v>1.0230765026352472E-3</v>
+        <v>-1.1967015007205546E-2</v>
       </c>
       <c r="J47">
         <f t="shared" si="7"/>
-        <v>1.0466855302443689E-6</v>
+        <v>1.4320944818268277E-4</v>
       </c>
       <c r="K47" s="3">
         <f t="shared" si="8"/>
@@ -8539,11 +8699,11 @@
       </c>
       <c r="L47" s="3">
         <f t="shared" si="1"/>
-        <v>1.712070287810297E-2</v>
+        <v>3.0110794387943764E-2</v>
       </c>
       <c r="M47" s="3">
         <f t="shared" si="9"/>
-        <v>1.570407759469641E-2</v>
+        <v>2.8694169104537204E-2</v>
       </c>
       <c r="N47" s="3">
         <f t="shared" si="10"/>
@@ -8551,7 +8711,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="11"/>
-        <v>2.4661805310024581E-4</v>
+        <v>8.2335534059977745E-4</v>
       </c>
       <c r="P47">
         <f t="shared" si="12"/>
@@ -8588,15 +8748,15 @@
       </c>
       <c r="H48">
         <f t="shared" si="13"/>
-        <v>-1.3300020214570272E-2</v>
+        <v>-2.3523696723231326E-2</v>
       </c>
       <c r="I48" s="3">
         <f t="shared" si="6"/>
-        <v>-4.3230467732386386E-3</v>
+        <v>5.9006297354224149E-3</v>
       </c>
       <c r="J48">
         <f t="shared" si="7"/>
-        <v>1.8688733403609004E-5</v>
+        <v>3.4817431274551196E-5</v>
       </c>
       <c r="K48" s="3">
         <f t="shared" si="8"/>
@@ -8604,11 +8764,11 @@
       </c>
       <c r="L48" s="3">
         <f t="shared" si="1"/>
-        <v>-1.0943057408086347E-2</v>
+        <v>-2.11667339167474E-2</v>
       </c>
       <c r="M48" s="3">
         <f t="shared" si="9"/>
-        <v>-1.2359682691492905E-2</v>
+        <v>-2.258335920015396E-2</v>
       </c>
       <c r="N48" s="3">
         <f t="shared" si="10"/>
@@ -8616,7 +8776,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="11"/>
-        <v>1.527617562343893E-4</v>
+        <v>5.1000811276317851E-4</v>
       </c>
       <c r="P48">
         <f t="shared" si="12"/>
@@ -8653,15 +8813,15 @@
       </c>
       <c r="H49">
         <f t="shared" si="13"/>
-        <v>3.5354758111759781E-3</v>
+        <v>7.2377769773744969E-3</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="6"/>
-        <v>-4.4090738401089211E-3</v>
+        <v>-8.1113750063074395E-3</v>
       </c>
       <c r="J49">
         <f t="shared" si="7"/>
-        <v>1.9439932127532829E-5</v>
+        <v>6.579440449294901E-5</v>
       </c>
       <c r="K49" s="3">
         <f t="shared" si="8"/>
@@ -8669,11 +8829,11 @@
       </c>
       <c r="L49" s="3">
         <f t="shared" si="1"/>
-        <v>5.8924386176599031E-3</v>
+        <v>9.5947397838584223E-3</v>
       </c>
       <c r="M49" s="3">
         <f t="shared" si="9"/>
-        <v>4.475813334253345E-3</v>
+        <v>8.1781145004518642E-3</v>
       </c>
       <c r="N49" s="3">
         <f t="shared" si="10"/>
@@ -8681,7 +8841,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="11"/>
-        <v>2.0032905003080045E-5</v>
+        <v>6.6881556782501044E-5</v>
       </c>
       <c r="P49">
         <f t="shared" si="12"/>
@@ -8718,15 +8878,15 @@
       </c>
       <c r="H50">
         <f t="shared" si="13"/>
-        <v>9.7006571110973153E-4</v>
+        <v>2.550312158769108E-3</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="6"/>
-        <v>1.9537174765175773E-5</v>
+        <v>-1.5607092728942007E-3</v>
       </c>
       <c r="J50">
         <f t="shared" si="7"/>
-        <v>3.8170119780502104E-10</v>
+        <v>2.4358134344979447E-6</v>
       </c>
       <c r="K50" s="3">
         <f t="shared" si="8"/>
@@ -8734,11 +8894,11 @@
       </c>
       <c r="L50" s="3">
         <f t="shared" si="1"/>
-        <v>3.3270285175936564E-3</v>
+        <v>4.9072749652530334E-3</v>
       </c>
       <c r="M50" s="3">
         <f t="shared" si="9"/>
-        <v>1.9104032341870983E-3</v>
+        <v>3.4906496818464749E-3</v>
       </c>
       <c r="N50" s="3">
         <f t="shared" si="10"/>
@@ -8746,7 +8906,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="11"/>
-        <v>3.6496405171925252E-6</v>
+        <v>1.2184635201374896E-5</v>
       </c>
       <c r="P50">
         <f t="shared" si="12"/>
@@ -8783,15 +8943,15 @@
       </c>
       <c r="H51">
         <f t="shared" si="13"/>
-        <v>4.2695774869062958E-3</v>
+        <v>8.57911253155208E-3</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="6"/>
-        <v>-5.77313347024836E-3</v>
+        <v>-1.0082668514894144E-2</v>
       </c>
       <c r="J51">
         <f t="shared" si="7"/>
-        <v>3.3329070065301873E-5</v>
+        <v>1.0166020438123768E-4</v>
       </c>
       <c r="K51" s="3">
         <f t="shared" si="8"/>
@@ -8799,11 +8959,11 @@
       </c>
       <c r="L51" s="3">
         <f>+H51-AVERAGE($B$3:$B$51)</f>
-        <v>6.6265402933902203E-3</v>
+        <v>1.0936075338036005E-2</v>
       </c>
       <c r="M51" s="3">
         <f t="shared" si="9"/>
-        <v>5.2099150099836622E-3</v>
+        <v>9.5194500546294473E-3</v>
       </c>
       <c r="N51" s="3">
         <f t="shared" si="10"/>
@@ -8811,7 +8971,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="11"/>
-        <v>2.7143214411253062E-5</v>
+        <v>9.0619929342584585E-5</v>
       </c>
       <c r="P51">
         <f t="shared" si="12"/>
@@ -8848,15 +9008,15 @@
       </c>
       <c r="H52">
         <f t="shared" ref="H52:H60" si="18">+$G$71+$G$70*B52</f>
-        <v>-6.0547893701218686E-2</v>
+        <v>-0.10985404395187275</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" ref="I52:I61" si="19">+C52-H52</f>
-        <v>-4.3756751745526318E-2</v>
+        <v>5.5493985051277422E-3</v>
       </c>
       <c r="J52">
         <f t="shared" ref="J52:J61" si="20">+I52*I52</f>
-        <v>1.9146533233196205E-3</v>
+        <v>3.0795823768714021E-5</v>
       </c>
       <c r="K52" s="3">
         <f t="shared" ref="K52:K61" si="21">+(C52-AVERAGE($C$3:$C$51))^2</f>
@@ -8864,11 +9024,11 @@
       </c>
       <c r="L52" s="3">
         <f t="shared" ref="L52:L60" si="22">+H52-AVERAGE($B$3:$B$51)</f>
-        <v>-5.819093089473476E-2</v>
+        <v>-0.10749708114538882</v>
       </c>
       <c r="M52" s="3">
         <f t="shared" ref="M52:M61" si="23">+H52-AVERAGE($C$3:$C$51)</f>
-        <v>-5.960755617814132E-2</v>
+        <v>-0.10891370642879537</v>
       </c>
       <c r="N52" s="3">
         <f t="shared" ref="N52:N61" si="24">+C52-AVERAGE($C$3:$C$51)</f>
@@ -8876,7 +9036,7 @@
       </c>
       <c r="O52">
         <f t="shared" ref="O52:O61" si="25">+M52*M52</f>
-        <v>3.5530607535302736E-3</v>
+        <v>1.1862195448057822E-2</v>
       </c>
       <c r="P52">
         <f t="shared" ref="P52:P61" si="26">+N52*N52</f>
@@ -8913,15 +9073,15 @@
       </c>
       <c r="H53">
         <f t="shared" si="18"/>
-        <v>-3.4354678718901722E-2</v>
+        <v>-6.1994337734684393E-2</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" si="19"/>
-        <v>-0.13819527519815414</v>
+        <v>-0.11055561618237146</v>
       </c>
       <c r="J53">
         <f t="shared" si="20"/>
-        <v>1.9097934087093555E-2</v>
+        <v>1.2222544269463835E-2</v>
       </c>
       <c r="K53" s="3">
         <f t="shared" si="21"/>
@@ -8929,11 +9089,11 @@
       </c>
       <c r="L53" s="3">
         <f t="shared" si="22"/>
-        <v>-3.1997715912417797E-2</v>
+        <v>-5.9637374928200468E-2</v>
       </c>
       <c r="M53" s="3">
         <f t="shared" si="23"/>
-        <v>-3.3414341195824357E-2</v>
+        <v>-6.1054000211607028E-2</v>
       </c>
       <c r="N53" s="3">
         <f t="shared" si="24"/>
@@ -8941,7 +9101,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="25"/>
-        <v>1.1165181975509647E-3</v>
+        <v>3.7275909418389109E-3</v>
       </c>
       <c r="P53">
         <f t="shared" si="26"/>
@@ -8978,15 +9138,15 @@
       </c>
       <c r="H54">
         <f t="shared" si="18"/>
-        <v>2.6333219013381509E-2</v>
+        <v>4.8893346666282742E-2</v>
       </c>
       <c r="I54" s="3">
         <f t="shared" si="19"/>
-        <v>7.2848857934460692E-2</v>
+        <v>5.028873028155946E-2</v>
       </c>
       <c r="J54">
         <f t="shared" si="20"/>
-        <v>5.306956102355237E-3</v>
+        <v>2.5289563933314353E-3</v>
       </c>
       <c r="K54" s="3">
         <f t="shared" si="21"/>
@@ -8994,11 +9154,11 @@
       </c>
       <c r="L54" s="3">
         <f t="shared" si="22"/>
-        <v>2.8690181819865435E-2</v>
+        <v>5.1250309472766667E-2</v>
       </c>
       <c r="M54" s="3">
         <f t="shared" si="23"/>
-        <v>2.7273556536458875E-2</v>
+        <v>4.9833684189360107E-2</v>
       </c>
       <c r="N54" s="3">
         <f t="shared" si="24"/>
@@ -9006,7 +9166,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="25"/>
-        <v>7.4384688614741862E-4</v>
+        <v>2.4833960798848797E-3</v>
       </c>
       <c r="P54">
         <f t="shared" si="26"/>
@@ -9043,15 +9203,15 @@
       </c>
       <c r="H55">
         <f t="shared" si="18"/>
-        <v>6.6743958940936474E-2</v>
+        <v>0.12273102341797812</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="19"/>
-        <v>1.4978233856017112E-2</v>
+        <v>-4.1008830621024533E-2</v>
       </c>
       <c r="J55">
         <f t="shared" si="20"/>
-        <v>2.2434748944553725E-4</v>
+        <v>1.6817241889038794E-3</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" si="21"/>
@@ -9059,11 +9219,11 @@
       </c>
       <c r="L55" s="3">
         <f t="shared" si="22"/>
-        <v>6.9100921747420399E-2</v>
+        <v>0.12508798622446204</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" si="23"/>
-        <v>6.7684296464013846E-2</v>
+        <v>0.12367136094105549</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" si="24"/>
@@ -9071,7 +9231,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="25"/>
-        <v>4.581163987828517E-3</v>
+        <v>1.5294605517012826E-2</v>
       </c>
       <c r="P55">
         <f t="shared" si="26"/>
@@ -9108,15 +9268,15 @@
       </c>
       <c r="H56">
         <f t="shared" si="18"/>
-        <v>4.3561912025616868E-3</v>
+        <v>8.7373713397375062E-3</v>
       </c>
       <c r="I56" s="3">
         <f t="shared" si="19"/>
-        <v>1.7053245489610083E-2</v>
+        <v>1.2672065352434262E-2</v>
       </c>
       <c r="J56">
         <f t="shared" si="20"/>
-        <v>2.9081318172890667E-4</v>
+        <v>1.6058124029636489E-4</v>
       </c>
       <c r="K56" s="3">
         <f t="shared" si="21"/>
@@ -9124,11 +9284,11 @@
       </c>
       <c r="L56" s="3">
         <f t="shared" si="22"/>
-        <v>6.7131540090456122E-3</v>
+        <v>1.1094334146221432E-2</v>
       </c>
       <c r="M56" s="3">
         <f t="shared" si="23"/>
-        <v>5.2965287256390541E-3</v>
+        <v>9.6777088628148735E-3</v>
       </c>
       <c r="N56" s="3">
         <f t="shared" si="24"/>
@@ -9136,7 +9296,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="25"/>
-        <v>2.8053216541519661E-5</v>
+        <v>9.3658048833405557E-5</v>
       </c>
       <c r="P56">
         <f t="shared" si="26"/>
@@ -9173,15 +9333,15 @@
       </c>
       <c r="H57">
         <f t="shared" si="18"/>
-        <v>-1.5405529475564753E-3</v>
+        <v>-2.0370388597398628E-3</v>
       </c>
       <c r="I57" s="3">
         <f t="shared" si="19"/>
-        <v>2.1954985318066691E-2</v>
+        <v>2.245147123025008E-2</v>
       </c>
       <c r="J57">
         <f t="shared" si="20"/>
-        <v>4.8202138031652395E-4</v>
+        <v>5.0406856040274709E-4</v>
       </c>
       <c r="K57" s="3">
         <f t="shared" si="21"/>
@@ -9189,11 +9349,11 @@
       </c>
       <c r="L57" s="3">
         <f t="shared" si="22"/>
-        <v>8.1640985892744971E-4</v>
+        <v>3.1992394674406222E-4</v>
       </c>
       <c r="M57" s="3">
         <f t="shared" si="23"/>
-        <v>-6.0021542447910841E-4</v>
+        <v>-1.0967013366624959E-3</v>
       </c>
       <c r="N57" s="3">
         <f t="shared" si="24"/>
@@ -9201,7 +9361,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="25"/>
-        <v>3.6025855578263629E-7</v>
+        <v>1.2027538218373052E-6</v>
       </c>
       <c r="P57">
         <f t="shared" si="26"/>
@@ -9238,15 +9398,15 @@
       </c>
       <c r="H58">
         <f t="shared" si="18"/>
-        <v>1.3205575953414086E-2</v>
+        <v>2.4906786001686672E-2</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="19"/>
-        <v>7.1218349481957464E-3</v>
+        <v>-4.5793751000768393E-3</v>
       </c>
       <c r="J58">
         <f t="shared" si="20"/>
-        <v>5.0720533029342313E-5</v>
+        <v>2.0970676307203763E-5</v>
       </c>
       <c r="K58" s="3">
         <f t="shared" si="21"/>
@@ -9254,11 +9414,11 @@
       </c>
       <c r="L58" s="3">
         <f t="shared" si="22"/>
-        <v>1.5562538759898012E-2</v>
+        <v>2.7263748808170597E-2</v>
       </c>
       <c r="M58" s="3">
         <f t="shared" si="23"/>
-        <v>1.4145913476491453E-2</v>
+        <v>2.5847123524764037E-2</v>
       </c>
       <c r="N58" s="3">
         <f t="shared" si="24"/>
@@ -9266,7 +9426,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="25"/>
-        <v>2.0010686808438253E-4</v>
+        <v>6.6807379450441054E-4</v>
       </c>
       <c r="P58">
         <f t="shared" si="26"/>
@@ -9303,15 +9463,15 @@
       </c>
       <c r="H59">
         <f t="shared" si="18"/>
-        <v>-3.9287014769352219E-3</v>
+        <v>-6.4006149650876988E-3</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="19"/>
-        <v>1.6681042292456455E-2</v>
+        <v>1.9152955780608934E-2</v>
       </c>
       <c r="J59">
         <f t="shared" si="20"/>
-        <v>2.7825717196272088E-4</v>
+        <v>3.668357151339612E-4</v>
       </c>
       <c r="K59" s="3">
         <f t="shared" si="21"/>
@@ -9319,11 +9479,11 @@
       </c>
       <c r="L59" s="3">
         <f t="shared" si="22"/>
-        <v>-1.571738670451297E-3</v>
+        <v>-4.0436521586037742E-3</v>
       </c>
       <c r="M59" s="3">
         <f t="shared" si="23"/>
-        <v>-2.9883639538578551E-3</v>
+        <v>-5.4602774420103323E-3</v>
       </c>
       <c r="N59" s="3">
         <f t="shared" si="24"/>
@@ -9331,7 +9491,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="25"/>
-        <v>8.9303191207169522E-6</v>
+        <v>2.9814629743726898E-5</v>
       </c>
       <c r="P59">
         <f t="shared" si="26"/>
@@ -9368,15 +9528,15 @@
       </c>
       <c r="H60">
         <f t="shared" si="18"/>
-        <v>1.1925354324791764E-2</v>
+        <v>2.2567591249147936E-2</v>
       </c>
       <c r="I60" s="3">
         <f t="shared" si="19"/>
-        <v>2.2077939197474982E-3</v>
+        <v>-8.4344430046086744E-3</v>
       </c>
       <c r="J60">
         <f t="shared" si="20"/>
-        <v>4.8743539920740225E-6</v>
+        <v>7.1139828797992202E-5</v>
       </c>
       <c r="K60" s="3">
         <f t="shared" si="21"/>
@@ -9384,11 +9544,11 @@
       </c>
       <c r="L60" s="3">
         <f t="shared" si="22"/>
-        <v>1.4282317131275689E-2</v>
+        <v>2.4924554055631862E-2</v>
       </c>
       <c r="M60" s="3">
         <f t="shared" si="23"/>
-        <v>1.2865691847869131E-2</v>
+        <v>2.3507928772225302E-2</v>
       </c>
       <c r="N60" s="3">
         <f t="shared" si="24"/>
@@ -9396,7 +9556,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="25"/>
-        <v>1.6552602672432622E-4</v>
+        <v>5.5262271516001824E-4</v>
       </c>
       <c r="P60">
         <f t="shared" si="26"/>
@@ -9433,15 +9593,15 @@
       </c>
       <c r="H61">
         <f>+$G$71+$G$70*B61</f>
-        <v>1.9998093063838037E-3</v>
+        <v>4.4318385762829376E-3</v>
       </c>
       <c r="I61" s="3">
         <f t="shared" si="19"/>
-        <v>4.7984780638845263E-3</v>
+        <v>2.3664487939853924E-3</v>
       </c>
       <c r="J61">
         <f t="shared" si="20"/>
-        <v>2.3025391729580991E-5</v>
+        <v>5.6000798945549176E-6</v>
       </c>
       <c r="K61" s="3">
         <f t="shared" si="21"/>
@@ -9449,11 +9609,11 @@
       </c>
       <c r="L61" s="3">
         <f>+H61-AVERAGE($B$3:$B$51)</f>
-        <v>4.3567721128677291E-3</v>
+        <v>6.7888013827668622E-3</v>
       </c>
       <c r="M61" s="3">
         <f t="shared" si="23"/>
-        <v>2.9401468294611706E-3</v>
+        <v>5.372176099360304E-3</v>
       </c>
       <c r="N61" s="3">
         <f t="shared" si="24"/>
@@ -9461,7 +9621,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="25"/>
-        <v>8.644463378790573E-6</v>
+        <v>2.8860276042538093E-5</v>
       </c>
       <c r="P61">
         <f t="shared" si="26"/>
@@ -9498,15 +9658,15 @@
       </c>
       <c r="H62">
         <f t="shared" ref="H62" si="31">+$G$71+$G$70*B62</f>
-        <v>4.3055285976437707E-3</v>
+        <v>8.6448016651402542E-3</v>
       </c>
       <c r="I62" s="3">
         <f t="shared" ref="I62" si="32">+C62-H62</f>
-        <v>1.4672268095752616E-2</v>
+        <v>1.0332995028256133E-2</v>
       </c>
       <c r="J62">
         <f t="shared" ref="J62" si="33">+I62*I62</f>
-        <v>2.152754510736401E-4</v>
+        <v>1.0677078625396596E-4</v>
       </c>
       <c r="K62" s="3">
         <f t="shared" ref="K62" si="34">+(C62-AVERAGE($C$3:$C$51))^2</f>
@@ -9514,11 +9674,11 @@
       </c>
       <c r="L62" s="3">
         <f t="shared" ref="L62" si="35">+H62-AVERAGE($B$3:$B$51)</f>
-        <v>6.6624914041276961E-3</v>
+        <v>1.100176447162418E-2</v>
       </c>
       <c r="M62" s="3">
         <f t="shared" ref="M62" si="36">+H62-AVERAGE($C$3:$C$51)</f>
-        <v>5.245866120721138E-3</v>
+        <v>9.5851391882176215E-3</v>
       </c>
       <c r="N62" s="3">
         <f t="shared" ref="N62" si="37">+C62-AVERAGE($C$3:$C$51)</f>
@@ -9526,7 +9686,7 @@
       </c>
       <c r="O62">
         <f t="shared" ref="O62" si="38">+M62*M62</f>
-        <v>2.7519111356529841E-5</v>
+        <v>9.1874893257505163E-5</v>
       </c>
       <c r="P62">
         <f t="shared" ref="P62" si="39">+N62*N62</f>
@@ -9535,28 +9695,28 @@
     </row>
     <row r="68" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F68">
-        <f>+SUM(F3:F51)</f>
-        <v>8.087011349938068E-3</v>
+        <f>+SUM(F3:F62)</f>
+        <v>8.3952870756921913E-2</v>
       </c>
       <c r="G68">
-        <f>+SUM(G3:G51)</f>
-        <v>2.934441796197507E-2</v>
+        <f>+SUM(G3:G62)</f>
+        <v>0.16672156472729432</v>
       </c>
       <c r="J68">
-        <f>+SUM(J3:J51)</f>
-        <v>3.1072504377628314E-3</v>
-      </c>
-      <c r="K68">
-        <f>+SUM(K3:K51)</f>
-        <v>5.3359452668363932E-3</v>
+        <f>+SUM(J3:J62)</f>
+        <v>2.2332168889093233E-2</v>
+      </c>
+      <c r="K68" s="3">
+        <f>+SUM(K3:K62)</f>
+        <v>6.4606751183572966E-2</v>
       </c>
       <c r="O68">
-        <f>+SUM(O3:O51)</f>
-        <v>2.2286948290735601E-3</v>
+        <f>+SUM(O3:O62)</f>
+        <v>4.2274582294479737E-2</v>
       </c>
       <c r="P68">
-        <f>+SUM(P3:P51)</f>
-        <v>5.3359452668363932E-3</v>
+        <f>+SUM(P3:P62)</f>
+        <v>6.4606751183572966E-2</v>
       </c>
     </row>
     <row r="70" spans="6:16" x14ac:dyDescent="0.25">
@@ -9565,7 +9725,7 @@
       </c>
       <c r="G70" s="4">
         <f>+F68/G68</f>
-        <v>0.2755894276184771</v>
+        <v>0.50355136058279704</v>
       </c>
     </row>
     <row r="71" spans="6:16" x14ac:dyDescent="0.25">
@@ -9574,25 +9734,26 @@
       </c>
       <c r="G71" s="4">
         <f>+AVERAGE(C3:C51)-G70*AVERAGE(B3:B51)</f>
-        <v>-2.9078349232042257E-4</v>
+        <v>2.4651430497066133E-4</v>
       </c>
       <c r="I71" t="s">
         <v>9</v>
       </c>
       <c r="J71" s="4">
         <f>1-(J68/K68)</f>
-        <v>0.41767572897068406</v>
+        <v>0.6543369155703429</v>
       </c>
       <c r="O71" t="s">
         <v>9</v>
       </c>
       <c r="P71" s="4">
         <f>+O68/P68</f>
-        <v>0.41767572897068372</v>
+        <v>0.6543369155703429</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9600,7 +9761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
